--- a/benchmarks/BenchmarksDiagrams.xlsx
+++ b/benchmarks/BenchmarksDiagrams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansgar\Documents\Development\Repositories\BunVsNodeJs\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA4802C-AA4E-4F72-8036-7EFE8E0FCB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C6B9F5-D778-463D-8D57-D581301207F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8F74B001-824D-4FE1-AEF6-C7F7EAAFBFDD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F74B001-824D-4FE1-AEF6-C7F7EAAFBFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-Server" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>Desktop-PC</t>
   </si>
   <si>
-    <t>Node.js 21.0.0</t>
-  </si>
-  <si>
     <t>Durchschnittliche Anfragen pro Sekunde (HTTP-Server)</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>Ausführungszeit für die Berechnung der Fibonacci-Folge</t>
+  </si>
+  <si>
+    <t>Node.js Current</t>
   </si>
 </sst>
 </file>
@@ -166,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -174,16 +174,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -419,7 +418,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node.js 21.0.0</c:v>
+                  <c:v>Node.js Current</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -937,7 +936,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node.js 21.0.0</c:v>
+                  <c:v>Node.js Current</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2270,7 +2269,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Durchschnittliche Latenz pro Sekunde auf dem Desktop-PC (File-Server)</a:t>
+              <a:t>Durchschnittliche Latenz auf dem Desktop-PC (File-Server)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2464,7 +2463,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node.js Latest</c:v>
+                  <c:v>Node.js Current</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2612,6 +2611,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Durchschnittl. Latenz in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2765,7 +2819,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Durchschnittliche Latenz pro Sekunde auf dem Macbook Pro (File-Server)</a:t>
+              <a:t>Durchschnittliche Latenz auf dem Macbook Pro (File-Server)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2959,7 +3013,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node.js Latest</c:v>
+                  <c:v>Node.js Current</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3107,6 +3161,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Durchschnittl. Latenz in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3428,7 +3544,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node.js 21.0.0</c:v>
+                  <c:v>Node.js Current</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3563,6 +3679,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>CPU-Auslastung</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> in Prozent</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3884,7 +4060,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node.js 21.0.0</c:v>
+                  <c:v>Node.js Current</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4403,7 +4579,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node.js 21.0.0</c:v>
+                  <c:v>Node.js Current</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4538,6 +4714,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Ausführungszeit in Sekunden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10158,8 +10389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1066BB53-1D7C-4723-A7CA-755E56B72447}">
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10168,11 +10399,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -10187,10 +10418,10 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>75685.819999999992</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>103215.08199999999</v>
       </c>
     </row>
@@ -10198,30 +10429,30 @@
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>45787.130000000005</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>30296.281999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5">
         <v>45881.502</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>32285.811999999998</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
@@ -10235,10 +10466,10 @@
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>6.6079999999999997</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>4.8419999999999996</v>
       </c>
     </row>
@@ -10246,21 +10477,21 @@
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>10.832000000000001</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>16.502000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="6">
+        <v>15</v>
+      </c>
+      <c r="B22" s="5">
         <v>10.891999999999999</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>15.489999999999998</v>
       </c>
     </row>
@@ -10278,8 +10509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588F7207-FE6E-4A87-821C-C22620513FF6}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10293,19 +10524,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -10316,7 +10547,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
@@ -10326,32 +10557,32 @@
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>50</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>24761.913999999997</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>11931.52</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>14434.576000000001</v>
       </c>
       <c r="F3" s="3">
         <v>50</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <v>25299.227999999996</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <v>20767.222000000002</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <v>21636.044000000002</v>
       </c>
     </row>
@@ -10359,25 +10590,25 @@
       <c r="A4" s="3">
         <v>250</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>24638.171999999999</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>9373.3640000000014</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>12041.237999999999</v>
       </c>
       <c r="F4" s="3">
         <v>250</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>25440.045999999998</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <v>16020.584000000003</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <v>17235.150000000001</v>
       </c>
     </row>
@@ -10385,25 +10616,25 @@
       <c r="A5" s="3">
         <v>100</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>24155.311999999998</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>8398.0025000000005</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>10383.16</v>
       </c>
       <c r="F5" s="3">
         <v>100</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>23848.726000000002</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>14510.203999999998</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <v>14723.984</v>
       </c>
     </row>
@@ -10411,44 +10642,44 @@
       <c r="A6" s="3">
         <v>1000</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>23786.799999999999</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>7947.1539999999995</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>8589.4560000000019</v>
       </c>
       <c r="F6" s="3">
         <v>1000</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>24786.460000000003</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>14355.366</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <v>14684.222</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>0</v>
@@ -10456,8 +10687,8 @@
       <c r="C26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>7</v>
+      <c r="D26" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="3"/>
@@ -10467,33 +10698,33 @@
       <c r="H26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>7</v>
+      <c r="I26" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>50</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="9">
         <v>2.0159999999999996</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="9">
         <v>4.1680000000000001</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="9">
         <v>3.4619999999999997</v>
       </c>
       <c r="F27" s="3">
         <v>50</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="9">
         <v>1.9760000000000002</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="9">
         <v>2.4119999999999999</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="9">
         <v>2.3079999999999998</v>
       </c>
     </row>
@@ -10501,25 +10732,25 @@
       <c r="A28" s="3">
         <v>250</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="9">
         <v>10.146000000000001</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="9">
         <v>26.610000000000003</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="9">
         <v>20.756</v>
       </c>
       <c r="F28" s="3">
         <v>250</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="9">
         <v>9.8260000000000005</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="9">
         <v>15.563999999999998</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="9">
         <v>12.661999999999999</v>
       </c>
     </row>
@@ -10527,25 +10758,25 @@
       <c r="A29" s="3">
         <v>100</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="9">
         <v>20.694000000000003</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="9">
         <v>58.814999999999991</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="9">
         <v>47.752499999999998</v>
       </c>
       <c r="F29" s="3">
         <v>100</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="9">
         <v>20.957999999999998</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="9">
         <v>34.456000000000003</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="9">
         <v>33.953999999999994</v>
       </c>
     </row>
@@ -10553,45 +10784,45 @@
       <c r="A30" s="3">
         <v>1000</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="9">
         <v>42.094000000000001</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="9">
         <v>126.15799999999999</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="9">
         <v>115.76799999999999</v>
       </c>
       <c r="F30" s="3">
         <v>1000</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="9">
         <v>40.332000000000001</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="9">
         <v>69.722000000000008</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="9">
         <v>67.998000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="4"/>
+      <c r="F47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="7"/>
-      <c r="F47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
@@ -10612,20 +10843,20 @@
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="10">
         <v>55.543999999999997</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="10">
         <v>82.661600000000007</v>
       </c>
-      <c r="D49" s="8"/>
+      <c r="D49" s="6"/>
       <c r="F49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="8">
         <v>90.6</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="8">
         <v>96.2</v>
       </c>
     </row>
@@ -10633,41 +10864,41 @@
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="10">
         <v>295.36</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="10">
         <v>151.8672</v>
       </c>
-      <c r="D50" s="8"/>
+      <c r="D50" s="6"/>
       <c r="F50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="8">
         <v>195</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="8">
         <v>167.4</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="12">
+        <v>15</v>
+      </c>
+      <c r="B51" s="10">
         <v>330.48</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="10">
         <v>211.56559999999999</v>
       </c>
-      <c r="D51" s="8"/>
+      <c r="D51" s="6"/>
       <c r="F51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="10">
+        <v>15</v>
+      </c>
+      <c r="G51" s="8">
         <v>204.6</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="8">
         <v>279.60000000000002</v>
       </c>
     </row>
@@ -10689,8 +10920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E32A47-C85F-4D2E-BFDE-D8820CE9A189}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10701,11 +10932,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="A1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -10720,10 +10951,10 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>3.2439999999999998</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>4.4719999999999995</v>
       </c>
     </row>
@@ -10731,21 +10962,21 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>6.5060000000000002</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>7.346000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5">
         <v>6.3220000000000001</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>7.1800000000000015</v>
       </c>
     </row>

--- a/benchmarks/BenchmarksDiagrams.xlsx
+++ b/benchmarks/BenchmarksDiagrams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansgar\Documents\Development\Repositories\BunVsNodeJs\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C6B9F5-D778-463D-8D57-D581301207F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3975A3EE-7456-4CBB-9A52-13A2FB7C5B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F74B001-824D-4FE1-AEF6-C7F7EAAFBFDD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8F74B001-824D-4FE1-AEF6-C7F7EAAFBFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-Server" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
   <si>
     <t>Bun</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Node.js Current</t>
+  </si>
+  <si>
+    <t>CPU-Auslastung bei der Berechnung der Fibonacci-Folge</t>
+  </si>
+  <si>
+    <t>RAM-Nutzung bei der Berechnung der Fibonacci-Folge</t>
   </si>
 </sst>
 </file>
@@ -691,6 +697,1035 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>CPU-Auslastung bei der Berechnung der Fibonacci-Folge</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fibonacci!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Fibonacci!$G$1:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fibonacci!$G$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E8B-4AFB-A03F-685C0BF669B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fibonacci!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js LTS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Fibonacci!$G$1:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fibonacci!$G$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E8B-4AFB-A03F-685C0BF669B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fibonacci!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js Current</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Fibonacci!$G$1:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fibonacci!$G$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7E8B-4AFB-A03F-685C0BF669B7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1587288927"/>
+        <c:axId val="1593339295"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1587288927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593339295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1593339295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>CPu-Auslastung in Prozent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587288927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>RAM-Nutzung bei der Berechnung der Fibonacci-Folge</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fibonacci!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Fibonacci!$B$25:$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fibonacci!$B$27:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>25.926400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.847000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF6D-47D6-BBD0-831965FBA51D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fibonacci!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js LTS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Fibonacci!$B$25:$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fibonacci!$B$28:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>41.977600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.156799999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FF6D-47D6-BBD0-831965FBA51D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fibonacci!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js Current</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Fibonacci!$B$25:$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fibonacci!$B$29:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>36.735999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.827199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FF6D-47D6-BBD0-831965FBA51D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1694938207"/>
+        <c:axId val="1693180719"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1694938207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1693180719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1693180719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>RAM-Nutzung in Megabyte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1694938207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4924,6 +5959,80 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -5221,6 +6330,1012 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10087,6 +12202,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{108B9DB0-01DF-39E7-1D53-A05B9112CB3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF263A1-1365-77FB-EB68-EB0C12394207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10389,7 +12576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1066BB53-1D7C-4723-A7CA-755E56B72447}">
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -10918,10 +13105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E32A47-C85F-4D2E-BFDE-D8820CE9A189}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10929,16 +13116,25 @@
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
+      <c r="F1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -10946,8 +13142,15 @@
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -10957,8 +13160,17 @@
       <c r="C3" s="5">
         <v>4.4719999999999995</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>100</v>
+      </c>
+      <c r="H3" s="5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -10968,8 +13180,17 @@
       <c r="C4" s="5">
         <v>7.346000000000001</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>99</v>
+      </c>
+      <c r="H4" s="5">
+        <v>99.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -10979,10 +13200,70 @@
       <c r="C5" s="5">
         <v>7.1800000000000015</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5">
+        <v>99</v>
+      </c>
+      <c r="H5" s="5">
+        <v>99.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>25.926400000000001</v>
+      </c>
+      <c r="C27" s="5">
+        <v>44.847000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>41.977600000000002</v>
+      </c>
+      <c r="C28" s="5">
+        <v>46.156799999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>36.735999999999997</v>
+      </c>
+      <c r="C29" s="5">
+        <v>43.827199999999998</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/benchmarks/BenchmarksDiagrams.xlsx
+++ b/benchmarks/BenchmarksDiagrams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansgar\Documents\Development\Repositories\BunVsNodeJs\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3975A3EE-7456-4CBB-9A52-13A2FB7C5B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D70F14-A56B-4C3C-9536-7CED4DBCA474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8F74B001-824D-4FE1-AEF6-C7F7EAAFBFDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F74B001-824D-4FE1-AEF6-C7F7EAAFBFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-Server" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -189,6 +189,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -5013,7 +5014,7 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>55.543999999999997</c:v>
+                  <c:v>67.827200000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>82.661600000000007</c:v>
@@ -12576,7 +12577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1066BB53-1D7C-4723-A7CA-755E56B72447}">
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -12696,8 +12697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588F7207-FE6E-4A87-821C-C22620513FF6}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13030,8 +13031,8 @@
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="10">
-        <v>55.543999999999997</v>
+      <c r="B49" s="12">
+        <v>67.827200000000005</v>
       </c>
       <c r="C49" s="10">
         <v>82.661600000000007</v>
@@ -13107,7 +13108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E32A47-C85F-4D2E-BFDE-D8820CE9A189}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>

--- a/benchmarks/BenchmarksDiagrams.xlsx
+++ b/benchmarks/BenchmarksDiagrams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansgar\Documents\Development\Repositories\BunVsNodeJs\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D70F14-A56B-4C3C-9536-7CED4DBCA474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3CEF63-DE9C-4EDC-83B0-7C7BFB343AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F74B001-824D-4FE1-AEF6-C7F7EAAFBFDD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8F74B001-824D-4FE1-AEF6-C7F7EAAFBFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-Server" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -189,7 +189,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2810,7 +2809,14 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Durchschnittliche Anfragen pro Sekunde auf dem Desktop-PC (File-Server)</a:t>
+              <a:t>Durchschnittliche Anfragen pro Sekunde </a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="de-DE"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>(File-Server)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12577,7 +12583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1066BB53-1D7C-4723-A7CA-755E56B72447}">
   <dimension ref="A2:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -12697,8 +12703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588F7207-FE6E-4A87-821C-C22620513FF6}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13031,7 +13037,7 @@
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="10">
         <v>67.827200000000005</v>
       </c>
       <c r="C49" s="10">
@@ -13108,7 +13114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E32A47-C85F-4D2E-BFDE-D8820CE9A189}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>

--- a/benchmarks/BenchmarksDiagrams.xlsx
+++ b/benchmarks/BenchmarksDiagrams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansgar\Documents\Development\Repositories\BunVsNodeJs\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3CEF63-DE9C-4EDC-83B0-7C7BFB343AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F51667-8C5A-45CD-A5CB-BBE0F6D5E5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8F74B001-824D-4FE1-AEF6-C7F7EAAFBFDD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8F74B001-824D-4FE1-AEF6-C7F7EAAFBFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-Server" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
   <si>
     <t>Bun</t>
   </si>
@@ -85,13 +85,13 @@
     <t>Ausführungszeit für die Berechnung der Fibonacci-Folge</t>
   </si>
   <si>
-    <t>Node.js Current</t>
-  </si>
-  <si>
     <t>CPU-Auslastung bei der Berechnung der Fibonacci-Folge</t>
   </si>
   <si>
     <t>RAM-Nutzung bei der Berechnung der Fibonacci-Folge</t>
+  </si>
+  <si>
+    <t>Präsentation</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node.js Current</c:v>
+                  <c:v>Node.js Latest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -760,6 +760,2104 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>CPU-Auslastung bei 1000 gleichzeitigen Benutzern</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18210411198600174"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'File-Server'!$F$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'File-Server'!$G$48:$H$48</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'File-Server'!$G$49:$H$49</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>90.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E57D-4AED-A05F-23EB1A16FFE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'File-Server'!$F$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js LTS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'File-Server'!$G$48:$H$48</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'File-Server'!$G$50:$H$50</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E57D-4AED-A05F-23EB1A16FFE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'File-Server'!$F$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js Latest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'File-Server'!$G$48:$H$48</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'File-Server'!$G$51:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>204.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>279.60000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E57D-4AED-A05F-23EB1A16FFE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1959356447"/>
+        <c:axId val="2009027391"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1959356447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2009027391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2009027391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>CPU-Auslastung in Prozent</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1959356447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Durchschnittliche Latenz auf dem Desktop-PC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'File-Server'!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9444444444444445E-2"/>
+                  <c:y val="1.3888888888888888E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-4297-4426-8283-E04BF8445D9B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2222222222222223E-2"/>
+                  <c:y val="1.3888888888888888E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-4297-4426-8283-E04BF8445D9B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3888888888888888E-2"/>
+                  <c:y val="1.3888888888888805E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-4297-4426-8283-E04BF8445D9B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'File-Server'!$A$27:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'File-Server'!$B$27:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0159999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.146000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.694000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.094000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4297-4426-8283-E04BF8445D9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'File-Server'!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js LTS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.7037037037037035E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-4297-4426-8283-E04BF8445D9B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0925337632079971E-17"/>
+                  <c:y val="-4.1666666666666755E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4297-4426-8283-E04BF8445D9B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1111111111111212E-2"/>
+                  <c:y val="1.3888888888888888E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-4297-4426-8283-E04BF8445D9B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'File-Server'!$A$27:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'File-Server'!$C$27:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.1680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.610000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.814999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126.15799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4297-4426-8283-E04BF8445D9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'File-Server'!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js Latest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6666666666666566E-2"/>
+                  <c:y val="-1.3888888888888888E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-4297-4426-8283-E04BF8445D9B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9444444444444445E-2"/>
+                  <c:y val="4.6296296296296294E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-4297-4426-8283-E04BF8445D9B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'File-Server'!$A$27:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'File-Server'!$D$27:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.4619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.752499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.76799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4297-4426-8283-E04BF8445D9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1959341087"/>
+        <c:axId val="2009030367"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1959341087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2009030367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2009030367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Durchschnittl. Latenz in ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1959341087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Ausführungszeit für die Berechnung der Fibonacci-Folge</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fibonacci!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Fibonacci!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fibonacci!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.2439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4719999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5F6-4E01-B29A-D7AC388C35B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fibonacci!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js LTS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Fibonacci!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fibonacci!$B$4:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.5060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.346000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B5F6-4E01-B29A-D7AC388C35B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fibonacci!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js Latest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Fibonacci!$B$2:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fibonacci!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.3220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1800000000000015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B5F6-4E01-B29A-D7AC388C35B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1959356927"/>
+        <c:axId val="1816989503"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1959356927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1816989503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1816989503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Ausführungszeit in Sekunden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1959356927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -942,7 +3040,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node.js Current</c:v>
+                  <c:v>Node.js Latest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1250,7 +3348,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1460,7 +3558,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node.js Current</c:v>
+                  <c:v>Node.js Latest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1971,7 +4069,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node.js Current</c:v>
+                  <c:v>Node.js Latest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2392,7 +4490,7 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1000</c:v>
@@ -2464,7 +4562,7 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1000</c:v>
@@ -2536,7 +4634,7 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1000</c:v>
@@ -2894,7 +4992,7 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1000</c:v>
@@ -2966,7 +5064,7 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1000</c:v>
@@ -3038,7 +5136,7 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1000</c:v>
@@ -3311,7 +5409,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Durchschnittliche Latenz auf dem Desktop-PC (File-Server)</a:t>
+              <a:t>Durchschnittliche Latenz (File-Server)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3389,7 +5487,7 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1000</c:v>
@@ -3461,7 +5559,7 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1000</c:v>
@@ -3505,7 +5603,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node.js Current</c:v>
+                  <c:v>Node.js Latest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3533,7 +5631,7 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1000</c:v>
@@ -3939,7 +6037,7 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1000</c:v>
@@ -4011,7 +6109,7 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1000</c:v>
@@ -4055,7 +6153,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node.js Current</c:v>
+                  <c:v>Node.js Latest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4083,7 +6181,7 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1000</c:v>
@@ -4586,7 +6684,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node.js Current</c:v>
+                  <c:v>Node.js Latest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5102,7 +7200,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node.js Current</c:v>
+                  <c:v>Node.js Latest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5446,14 +7544,14 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Ausführungszeit für die Berechnung der Fibonacci-Folge</a:t>
+              <a:t>RAM-Nutzung bei 1000 gleichzeitigen Benutzern</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5478,9 +7576,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="de-DE"/>
@@ -5499,7 +7597,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fibonacci!$A$3</c:f>
+              <c:f>'File-Server'!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5518,9 +7616,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Fibonacci!$B$2:$C$2</c:f>
+              <c:f>'File-Server'!$B$48:$C$48</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5534,22 +7688,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fibonacci!$B$3:$C$3</c:f>
+              <c:f>'File-Server'!$B$49:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3.2439999999999998</c:v>
+                  <c:v>67.827200000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4719999999999995</c:v>
+                  <c:v>82.661600000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B5F6-4E01-B29A-D7AC388C35B6}"/>
+              <c16:uniqueId val="{00000000-9A2D-4782-BD6C-745D727F7B52}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5558,7 +7712,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fibonacci!$A$4</c:f>
+              <c:f>'File-Server'!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5577,9 +7731,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Fibonacci!$B$2:$C$2</c:f>
+              <c:f>'File-Server'!$B$48:$C$48</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5593,22 +7803,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fibonacci!$B$4:$C$4</c:f>
+              <c:f>'File-Server'!$B$50:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.5060000000000002</c:v>
+                  <c:v>295.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.346000000000001</c:v>
+                  <c:v>151.8672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B5F6-4E01-B29A-D7AC388C35B6}"/>
+              <c16:uniqueId val="{00000001-9A2D-4782-BD6C-745D727F7B52}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5617,11 +7827,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Fibonacci!$A$5</c:f>
+              <c:f>'File-Server'!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Node.js Current</c:v>
+                  <c:v>Node.js Latest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5636,9 +7846,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Fibonacci!$B$2:$C$2</c:f>
+              <c:f>'File-Server'!$B$48:$C$48</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -5652,22 +7918,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fibonacci!$B$5:$C$5</c:f>
+              <c:f>'File-Server'!$B$51:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>6.3220000000000001</c:v>
+                  <c:v>330.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1800000000000015</c:v>
+                  <c:v>211.56559999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B5F6-4E01-B29A-D7AC388C35B6}"/>
+              <c16:uniqueId val="{00000002-9A2D-4782-BD6C-745D727F7B52}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5681,11 +7947,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1959356927"/>
-        <c:axId val="1816989503"/>
+        <c:axId val="1959328607"/>
+        <c:axId val="2008971311"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1959356927"/>
+        <c:axId val="1959328607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5720,15 +7986,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1816989503"/>
+        <c:crossAx val="2008971311"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5736,7 +8002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1816989503"/>
+        <c:axId val="2008971311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5770,18 +8036,26 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
-                  <a:t>Ausführungszeit in Sekunden</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Maximal verwendeter RAM in MB</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.16749999999999998"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5802,9 +8076,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="de-DE"/>
@@ -5834,15 +8108,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1959356927"/>
+        <c:crossAx val="1959328607"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5876,9 +8150,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="de-DE"/>
@@ -5916,7 +8190,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="de-DE"/>
     </a:p>
@@ -6004,6 +8281,117 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -7845,6 +10233,1515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -12168,6 +16065,120 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8204891-A74B-42F2-AE2E-E209DEBFE98C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BFD2D7B-2BEF-484D-904F-158B2D9BA37D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DA53A4-0DD8-4509-9892-D9FB5B78F27D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12584,7 +16595,7 @@
   <dimension ref="A2:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12631,8 +16642,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
+      <c r="A6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="5">
         <v>45881.502</v>
@@ -12679,8 +16690,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
+      <c r="A22" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B22" s="5">
         <v>10.891999999999999</v>
@@ -12701,10 +16712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588F7207-FE6E-4A87-821C-C22620513FF6}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12808,7 +16819,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="B5" s="7">
         <v>24155.311999999998</v>
@@ -12820,7 +16831,7 @@
         <v>10383.16</v>
       </c>
       <c r="F5" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G5" s="8">
         <v>23848.726000000002</v>
@@ -12873,7 +16884,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>0</v>
@@ -12881,8 +16892,8 @@
       <c r="C26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>15</v>
+      <c r="D26" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="3"/>
@@ -12892,8 +16903,8 @@
       <c r="H26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>15</v>
+      <c r="I26" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -12950,7 +16961,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="B29" s="9">
         <v>20.694000000000003</v>
@@ -12962,7 +16973,7 @@
         <v>47.752499999999998</v>
       </c>
       <c r="F29" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G29" s="9">
         <v>20.957999999999998</v>
@@ -13076,8 +17087,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>15</v>
+      <c r="A51" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B51" s="10">
         <v>330.48</v>
@@ -13086,8 +17097,8 @@
         <v>211.56559999999999</v>
       </c>
       <c r="D51" s="6"/>
-      <c r="F51" s="2" t="s">
-        <v>15</v>
+      <c r="F51" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G51" s="8">
         <v>204.6</v>
@@ -13096,8 +17107,29 @@
         <v>279.60000000000002</v>
       </c>
     </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A70:P70"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="F47:H47"/>
     <mergeCell ref="F1:I1"/>
@@ -13114,8 +17146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E32A47-C85F-4D2E-BFDE-D8820CE9A189}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13136,7 +17168,7 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="F1" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -13199,7 +17231,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5">
         <v>6.3220000000000001</v>
@@ -13208,7 +17240,7 @@
         <v>7.1800000000000015</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G5" s="5">
         <v>99</v>
@@ -13219,7 +17251,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -13257,7 +17289,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>36.735999999999997</v>

--- a/benchmarks/BenchmarksDiagrams.xlsx
+++ b/benchmarks/BenchmarksDiagrams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansgar\Documents\Development\Repositories\BunVsNodeJs\benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F51667-8C5A-45CD-A5CB-BBE0F6D5E5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA23A89-ACC4-4FC6-9572-7AB6C9B5CFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8F74B001-824D-4FE1-AEF6-C7F7EAAFBFDD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8F74B001-824D-4FE1-AEF6-C7F7EAAFBFDD}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-Server" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="18">
   <si>
     <t>Bun</t>
   </si>
@@ -79,9 +79,6 @@
     <t>CPU-Auslastung bei 1000 gleichzeitigen Benutzern (File-Server)</t>
   </si>
   <si>
-    <t>Anteil erfolgreicher Anfragen</t>
-  </si>
-  <si>
     <t>Ausführungszeit für die Berechnung der Fibonacci-Folge</t>
   </si>
   <si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>Präsentation</t>
+  </si>
+  <si>
+    <t>Maximale Latenz in ms (HTTP-Server)</t>
   </si>
 </sst>
 </file>
@@ -767,6 +767,696 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
+              <a:t>RAM-Nutzung bei 1000 gleichzeitigen Benutzern</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'File-Server'!$A$49</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'File-Server'!$B$48:$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'File-Server'!$B$49:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>67.827200000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.661600000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A2D-4782-BD6C-745D727F7B52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'File-Server'!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js LTS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'File-Server'!$B$48:$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'File-Server'!$B$50:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>295.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151.8672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9A2D-4782-BD6C-745D727F7B52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'File-Server'!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js Latest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'File-Server'!$B$48:$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'File-Server'!$B$51:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>330.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211.56559999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9A2D-4782-BD6C-745D727F7B52}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1959328607"/>
+        <c:axId val="2008971311"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1959328607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2008971311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2008971311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Maximal verwendeter RAM in MB</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2222222222222223E-2"/>
+              <c:y val="0.16749999999999998"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1959328607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
               <a:t>CPU-Auslastung bei 1000 gleichzeitigen Benutzern</a:t>
             </a:r>
           </a:p>
@@ -1422,7 +2112,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2319,7 +3009,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2830,7 +3520,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3348,7 +4038,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -4412,6 +5102,630 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
+              <a:t>Maximale Latenz in ms (HTTP-Server)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HTTP-Server'!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'HTTP-Server'!$B$35:$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HTTP-Server'!$B$37:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>167.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103.06799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDB7-43BC-855F-C70BC38F04FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HTTP-Server'!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js LTS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'HTTP-Server'!$B$35:$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HTTP-Server'!$B$38:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>184.59200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206.096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CDB7-43BC-855F-C70BC38F04FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HTTP-Server'!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Node.js Latest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'HTTP-Server'!$B$35:$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>MacBook Pro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Desktop-PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'HTTP-Server'!$B$39:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1608</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8446</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CDB7-43BC-855F-C70BC38F04FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1910359631"/>
+        <c:axId val="1911980895"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1910359631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1911980895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1911980895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1910359631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
               <a:t>Durchschnittliche Anfragen pro Sekunde auf dem MacBook Pro (HTTP-Server)</a:t>
             </a:r>
           </a:p>
@@ -4872,7 +6186,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -5374,7 +6688,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -5409,7 +6723,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Durchschnittliche Latenz (File-Server)</a:t>
+              <a:t>Durchschnittliche Latenz auf dem Desktop-PC (Datei-Server)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5924,7 +7238,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -5959,7 +7273,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Durchschnittliche Latenz auf dem Macbook Pro (File-Server)</a:t>
+              <a:t>Durchschnittliche Latenz auf dem Macbook Pro (Datei-Server)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6481,7 +7795,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -6516,7 +7830,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>CPU-Auslastung bei 1000 gleichzeitigen Benutzern (File-Server)</a:t>
+              <a:t>CPU-Auslastung bei 1000 gleichzeitigen Benutzern (Datei-Server)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6997,7 +8311,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -7032,7 +8346,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>RAM-Nutzung bei 1000 gleichzeitigen Benutzern (File-Server)</a:t>
+              <a:t>RAM-Nutzung bei 1000 gleichzeitigen Benutzern (Datei-Server)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7516,696 +8830,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>RAM-Nutzung bei 1000 gleichzeitigen Benutzern</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'File-Server'!$A$49</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bun</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'File-Server'!$B$48:$C$48</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>MacBook Pro</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Desktop-PC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'File-Server'!$B$49:$C$49</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>67.827200000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>82.661600000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9A2D-4782-BD6C-745D727F7B52}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'File-Server'!$A$50</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Node.js LTS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'File-Server'!$B$48:$C$48</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>MacBook Pro</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Desktop-PC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'File-Server'!$B$50:$C$50</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>295.36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>151.8672</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9A2D-4782-BD6C-745D727F7B52}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'File-Server'!$A$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Node.js Latest</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'File-Server'!$B$48:$C$48</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>MacBook Pro</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Desktop-PC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'File-Server'!$B$51:$C$51</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>330.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>211.56559999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9A2D-4782-BD6C-745D727F7B52}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1959328607"/>
-        <c:axId val="2008971311"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1959328607"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2008971311"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2008971311"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Maximal verwendeter RAM in MB</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.2222222222222223E-2"/>
-              <c:y val="0.16749999999999998"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1959328607"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -8392,6 +9016,43 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -11742,6 +12403,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -15835,6 +16999,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9123A3A-5B21-D0DC-4E7D-D4C82C021210}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16592,10 +17792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1066BB53-1D7C-4723-A7CA-755E56B72447}">
-  <dimension ref="A2:C22"/>
+  <dimension ref="A2:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16700,10 +17900,59 @@
         <v>15.489999999999998</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="5">
+        <v>167.7</v>
+      </c>
+      <c r="C37" s="5">
+        <v>103.06799999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="5">
+        <v>184.59200000000001</v>
+      </c>
+      <c r="C38" s="5">
+        <v>206.096</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1608</v>
+      </c>
+      <c r="C39" s="5">
+        <v>8446</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16714,8 +17963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588F7207-FE6E-4A87-821C-C22620513FF6}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17011,12 +18260,7 @@
         <v>67.998000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>11</v>
       </c>
@@ -17029,7 +18273,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>2</v>
       </c>
@@ -17109,7 +18353,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -17146,7 +18390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E32A47-C85F-4D2E-BFDE-D8820CE9A189}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -17163,12 +18407,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="F1" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -17251,7 +18495,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
